--- a/Journal_Comparison_Service_Data_Collection_Information_Power_v1.1.xlsx
+++ b/Journal_Comparison_Service_Data_Collection_Information_Power_v1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulwalk/Dropbox/Reference/_ou/cOAlition S/PSTF/journal_comparison_service_data_collection_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CA771-D70A-3948-A389-759CD09D8B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CBA47F-0AD2-2E42-923B-A5C304889CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="33600" windowHeight="15640" xr2:uid="{64594A8F-0D25-2F4C-85DE-649BC0F5FC38}"/>
   </bookViews>
@@ -225,7 +225,35 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Numeric value from https://read.oecd-ilibrary.org/science-and-technology/frascati-manual-2015_9789264239012-en#page60 or one of the following:
+          <t xml:space="preserve"> Enter value from https://read.oecd-ilibrary.org/science-and-technology/frascati-manual-2015_9789264239012-en#page60 (e.g. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1.6 Biological sciences</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> or one of the following:
 </t>
         </r>
         <r>
@@ -3144,7 +3172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3211,6 +3239,13 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3651,7 +3686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Journal_Comparison_Service_Data_Collection_Information_Power_v1.1.xlsx
+++ b/Journal_Comparison_Service_Data_Collection_Information_Power_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulwalk/Dropbox/Reference/_ou/cOAlition S/PSTF/journal_comparison_service_data_collection_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CBA47F-0AD2-2E42-923B-A5C304889CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C63318-B21B-8542-BDFB-5A1BC1D59526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="33600" windowHeight="15640" xr2:uid="{64594A8F-0D25-2F4C-85DE-649BC0F5FC38}"/>
   </bookViews>
@@ -232,7 +232,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>1.6 Biological sciences</t>
         </r>
@@ -242,7 +241,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>)</t>
         </r>
@@ -849,7 +847,36 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Subscription List Price Range Higher.
+          <t xml:space="preserve">Subscription List Price Range Higher. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This should be the fee charged to an institution, not a personal subscriber.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -970,7 +997,36 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Subscription List Price Range Higher.
+          <t xml:space="preserve">Subscription List Price Range Higher. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This should be the fee charged to an institution, not a personal subscriber.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -1069,7 +1125,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>This is a required field. To facilitate comparison of list prices between publishers, please tell us the subscription list price for a typical research-intensive university in the US.</t>
         </r>
@@ -3172,7 +3227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3250,6 +3305,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3684,9 +3745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A664604-316B-CC4E-8B2B-F0537DD1800C}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Journal_Comparison_Service_Data_Collection_Information_Power_v1.1.xlsx
+++ b/Journal_Comparison_Service_Data_Collection_Information_Power_v1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulwalk/Dropbox/Reference/_ou/cOAlition S/PSTF/journal_comparison_service_data_collection_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C63318-B21B-8542-BDFB-5A1BC1D59526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35626851-61D1-3549-86F9-FE867B82120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="33600" windowHeight="15640" xr2:uid="{64594A8F-0D25-2F4C-85DE-649BC0F5FC38}"/>
   </bookViews>
@@ -1005,7 +1005,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>This should be the fee charged to an institution, not a personal subscriber.</t>
         </r>
@@ -1014,7 +1013,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1126,7 +1124,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t>This is a required field. To facilitate comparison of list prices between publishers, please tell us the subscription list price for a typical research-intensive university in the US.</t>
+          <t>This is a required field. To facilitate comparison of list prices between publishers, please tell us the subscription list price for a typical research-intensive university in the US. Please cite in US$</t>
         </r>
       </text>
     </comment>
@@ -3208,9 +3206,6 @@
     <t>Median Time Submission To First Decision</t>
   </si>
   <si>
-    <t>Subscription List Price For Member of The Association of American Universities</t>
-  </si>
-  <si>
     <t>Cluster</t>
   </si>
   <si>
@@ -3221,6 +3216,9 @@
   </si>
   <si>
     <t xml:space="preserve">ISSN </t>
+  </si>
+  <si>
+    <t>Subscription List Price For Member of The Association of American Universities (in USD)</t>
   </si>
 </sst>
 </file>
@@ -3747,7 +3745,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3811,7 +3809,7 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="15"/>
       <c r="AA1" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -3823,13 +3821,13 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>1</v>
@@ -3859,7 +3857,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>10</v>
@@ -3925,7 +3923,7 @@
         <v>28</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
